--- a/data/china_ie_partner/2017-03.xlsx
+++ b/data/china_ie_partner/2017-03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DF63EC-1BE2-FF45-B358-54A8B86F3655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086BD9AA-5B6C-9744-990B-D788432EBD99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,735 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -773,17 +47,987 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -821,16 +1065,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -855,7 +1093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,9 +1110,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1194,7 +1429,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1210,24 +1445,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>247</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>20105</v>
+        <v>29293</v>
       </c>
       <c r="C2" s="2">
-        <v>20013</v>
+        <v>29159</v>
       </c>
       <c r="D2" s="3">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4">
         <v>2017</v>
@@ -1242,16 +1477,16 @@
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>68861</v>
+        <v>100356</v>
       </c>
       <c r="C3" s="2">
-        <v>48465</v>
+        <v>70639</v>
       </c>
       <c r="D3" s="2">
-        <v>20395</v>
+        <v>29717</v>
       </c>
       <c r="E3" s="4">
         <v>2017</v>
@@ -1266,16 +1501,16 @@
     </row>
     <row r="4" spans="1:10" ht="21">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>956890</v>
+        <v>1394729</v>
       </c>
       <c r="C4" s="2">
-        <v>900017</v>
+        <v>1311867</v>
       </c>
       <c r="D4" s="2">
-        <v>56873</v>
+        <v>82862</v>
       </c>
       <c r="E4" s="4">
         <v>2017</v>
@@ -1290,13 +1525,13 @@
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>545</v>
+        <v>794</v>
       </c>
       <c r="C5" s="3">
-        <v>544</v>
+        <v>793</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1314,16 +1549,16 @@
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>51739</v>
+        <v>75387</v>
       </c>
       <c r="C6" s="2">
-        <v>32555</v>
+        <v>47435</v>
       </c>
       <c r="D6" s="2">
-        <v>19184</v>
+        <v>27952</v>
       </c>
       <c r="E6" s="4">
         <v>2017</v>
@@ -1338,16 +1573,16 @@
     </row>
     <row r="7" spans="1:10" ht="21">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>818681</v>
+        <v>1192223</v>
       </c>
       <c r="C7" s="2">
-        <v>575061</v>
+        <v>837566</v>
       </c>
       <c r="D7" s="2">
-        <v>243620</v>
+        <v>354658</v>
       </c>
       <c r="E7" s="4">
         <v>2017</v>
@@ -1362,16 +1597,16 @@
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>347472</v>
+        <v>506291</v>
       </c>
       <c r="C8" s="2">
-        <v>290883</v>
+        <v>423836</v>
       </c>
       <c r="D8" s="2">
-        <v>56589</v>
+        <v>82455</v>
       </c>
       <c r="E8" s="4">
         <v>2017</v>
@@ -1386,16 +1621,16 @@
     </row>
     <row r="9" spans="1:10" ht="21">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>56931</v>
+        <v>83072</v>
       </c>
       <c r="C9" s="2">
-        <v>52734</v>
+        <v>76956</v>
       </c>
       <c r="D9" s="2">
-        <v>4197</v>
+        <v>6116</v>
       </c>
       <c r="E9" s="4">
         <v>2017</v>
@@ -1410,16 +1645,16 @@
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>303613</v>
+        <v>442564</v>
       </c>
       <c r="C10" s="2">
-        <v>224983</v>
+        <v>328007</v>
       </c>
       <c r="D10" s="2">
-        <v>78630</v>
+        <v>114557</v>
       </c>
       <c r="E10" s="4">
         <v>2017</v>
@@ -1433,17 +1668,17 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="21">
-      <c r="A11" s="6" t="s">
-        <v>244</v>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>15906437</v>
+        <v>23180236</v>
       </c>
       <c r="C11" s="2">
-        <v>15467414</v>
+        <v>22540722</v>
       </c>
       <c r="D11" s="2">
-        <v>439023</v>
+        <v>639514</v>
       </c>
       <c r="E11" s="4">
         <v>2017</v>
@@ -1458,16 +1693,16 @@
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>4992438</v>
+        <v>7275243</v>
       </c>
       <c r="C12" s="2">
-        <v>3966256</v>
+        <v>5779942</v>
       </c>
       <c r="D12" s="2">
-        <v>1026181</v>
+        <v>1495302</v>
       </c>
       <c r="E12" s="4">
         <v>2017</v>
@@ -1482,16 +1717,16 @@
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>3534075</v>
+        <v>5150301</v>
       </c>
       <c r="C13" s="2">
-        <v>1962857</v>
+        <v>2860843</v>
       </c>
       <c r="D13" s="2">
-        <v>1571218</v>
+        <v>2289458</v>
       </c>
       <c r="E13" s="4">
         <v>2017</v>
@@ -1506,16 +1741,16 @@
     </row>
     <row r="14" spans="1:10" ht="21">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>2228124</v>
+        <v>3246639</v>
       </c>
       <c r="C14" s="2">
-        <v>937097</v>
+        <v>1365308</v>
       </c>
       <c r="D14" s="2">
-        <v>1291027</v>
+        <v>1881331</v>
       </c>
       <c r="E14" s="4">
         <v>2017</v>
@@ -1530,16 +1765,16 @@
     </row>
     <row r="15" spans="1:10" ht="21">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1226137</v>
+        <v>1786766</v>
       </c>
       <c r="C15" s="2">
-        <v>384522</v>
+        <v>560293</v>
       </c>
       <c r="D15" s="2">
-        <v>841615</v>
+        <v>1226473</v>
       </c>
       <c r="E15" s="4">
         <v>2017</v>
@@ -1554,16 +1789,16 @@
     </row>
     <row r="16" spans="1:10" ht="21">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>662320</v>
+        <v>965090</v>
       </c>
       <c r="C16" s="2">
-        <v>465414</v>
+        <v>678167</v>
       </c>
       <c r="D16" s="2">
-        <v>196906</v>
+        <v>286923</v>
       </c>
       <c r="E16" s="4">
         <v>2017</v>
@@ -1578,16 +1813,16 @@
     </row>
     <row r="17" spans="1:10" ht="21">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>17943800</v>
+        <v>26214406</v>
       </c>
       <c r="C17" s="2">
-        <v>8282932</v>
+        <v>12083723</v>
       </c>
       <c r="D17" s="2">
-        <v>9660867</v>
+        <v>14130683</v>
       </c>
       <c r="E17" s="4">
         <v>2017</v>
@@ -1602,16 +1837,16 @@
     </row>
     <row r="18" spans="1:10" ht="21">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>154786</v>
+        <v>225514</v>
       </c>
       <c r="C18" s="2">
-        <v>147026</v>
+        <v>214207</v>
       </c>
       <c r="D18" s="2">
-        <v>7760</v>
+        <v>11307</v>
       </c>
       <c r="E18" s="4">
         <v>2017</v>
@@ -1626,16 +1861,16 @@
     </row>
     <row r="19" spans="1:10" ht="21">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>718582</v>
+        <v>1047066</v>
       </c>
       <c r="C19" s="2">
-        <v>176968</v>
+        <v>257904</v>
       </c>
       <c r="D19" s="2">
-        <v>541614</v>
+        <v>789161</v>
       </c>
       <c r="E19" s="4">
         <v>2017</v>
@@ -1650,16 +1885,16 @@
     </row>
     <row r="20" spans="1:10" ht="21">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>214443</v>
+        <v>312311</v>
       </c>
       <c r="C20" s="2">
-        <v>103699</v>
+        <v>151039</v>
       </c>
       <c r="D20" s="2">
-        <v>110744</v>
+        <v>161272</v>
       </c>
       <c r="E20" s="4">
         <v>2017</v>
@@ -1674,16 +1909,16 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>115054</v>
+        <v>167673</v>
       </c>
       <c r="C21" s="2">
-        <v>113788</v>
+        <v>165829</v>
       </c>
       <c r="D21" s="2">
-        <v>1266</v>
+        <v>1844</v>
       </c>
       <c r="E21" s="4">
         <v>2017</v>
@@ -1698,16 +1933,16 @@
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22" s="5" t="s">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>161693</v>
+        <v>235514</v>
       </c>
       <c r="C22" s="2">
-        <v>154907</v>
+        <v>225628</v>
       </c>
       <c r="D22" s="2">
-        <v>6786</v>
+        <v>9886</v>
       </c>
       <c r="E22" s="4">
         <v>2017</v>
@@ -1722,16 +1957,16 @@
     </row>
     <row r="23" spans="1:10" ht="21">
       <c r="A23" s="5" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>5706427</v>
+        <v>8315690</v>
       </c>
       <c r="C23" s="2">
-        <v>2501441</v>
+        <v>3645437</v>
       </c>
       <c r="D23" s="2">
-        <v>3204986</v>
+        <v>4670253</v>
       </c>
       <c r="E23" s="4">
         <v>2017</v>
@@ -1746,16 +1981,16 @@
     </row>
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>12060</v>
+        <v>17570</v>
       </c>
       <c r="C24" s="2">
-        <v>12009</v>
+        <v>17495</v>
       </c>
       <c r="D24" s="3">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4">
         <v>2017</v>
@@ -1770,16 +2005,16 @@
     </row>
     <row r="25" spans="1:10" ht="21">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>347382</v>
+        <v>506006</v>
       </c>
       <c r="C25" s="2">
-        <v>65107</v>
+        <v>94833</v>
       </c>
       <c r="D25" s="2">
-        <v>282274</v>
+        <v>411173</v>
       </c>
       <c r="E25" s="4">
         <v>2017</v>
@@ -1794,16 +2029,16 @@
     </row>
     <row r="26" spans="1:10" ht="21">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>42867</v>
+        <v>62436</v>
       </c>
       <c r="C26" s="2">
-        <v>41859</v>
+        <v>60968</v>
       </c>
       <c r="D26" s="2">
-        <v>1008</v>
+        <v>1469</v>
       </c>
       <c r="E26" s="4">
         <v>2017</v>
@@ -1818,16 +2053,16 @@
     </row>
     <row r="27" spans="1:10" ht="21">
       <c r="A27" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>873416</v>
+        <v>1272690</v>
       </c>
       <c r="C27" s="2">
-        <v>118081</v>
+        <v>172077</v>
       </c>
       <c r="D27" s="2">
-        <v>755335</v>
+        <v>1100613</v>
       </c>
       <c r="E27" s="4">
         <v>2017</v>
@@ -1842,16 +2077,16 @@
     </row>
     <row r="28" spans="1:10" ht="21">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>1167046</v>
+        <v>1700729</v>
       </c>
       <c r="C28" s="2">
-        <v>1060281</v>
+        <v>1545153</v>
       </c>
       <c r="D28" s="2">
-        <v>106765</v>
+        <v>155576</v>
       </c>
       <c r="E28" s="4">
         <v>2017</v>
@@ -1866,13 +2101,13 @@
     </row>
     <row r="29" spans="1:10" ht="21">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>2794</v>
+        <v>4070</v>
       </c>
       <c r="C29" s="2">
-        <v>2794</v>
+        <v>4070</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1890,16 +2125,16 @@
     </row>
     <row r="30" spans="1:10" ht="21">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>2908194</v>
+        <v>4237991</v>
       </c>
       <c r="C30" s="2">
-        <v>1911155</v>
+        <v>2784885</v>
       </c>
       <c r="D30" s="2">
-        <v>997039</v>
+        <v>1453107</v>
       </c>
       <c r="E30" s="4">
         <v>2017</v>
@@ -1914,16 +2149,16 @@
     </row>
     <row r="31" spans="1:10" ht="21">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>242036</v>
+        <v>352698</v>
       </c>
       <c r="C31" s="2">
-        <v>77355</v>
+        <v>112726</v>
       </c>
       <c r="D31" s="2">
-        <v>164680</v>
+        <v>239972</v>
       </c>
       <c r="E31" s="4">
         <v>2017</v>
@@ -1938,16 +2173,16 @@
     </row>
     <row r="32" spans="1:10" ht="21">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>2991329</v>
+        <v>4358660</v>
       </c>
       <c r="C32" s="2">
-        <v>1083160</v>
+        <v>1578004</v>
       </c>
       <c r="D32" s="2">
-        <v>1908169</v>
+        <v>2780655</v>
       </c>
       <c r="E32" s="4">
         <v>2017</v>
@@ -1962,16 +2197,16 @@
     </row>
     <row r="33" spans="1:10" ht="21">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>4723025</v>
+        <v>6883312</v>
       </c>
       <c r="C33" s="2">
-        <v>2881326</v>
+        <v>4199328</v>
       </c>
       <c r="D33" s="2">
-        <v>1841699</v>
+        <v>2683984</v>
       </c>
       <c r="E33" s="4">
         <v>2017</v>
@@ -1986,16 +2221,16 @@
     </row>
     <row r="34" spans="1:10" ht="21">
       <c r="A34" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>16167942</v>
+        <v>23561624</v>
       </c>
       <c r="C34" s="2">
-        <v>6383501</v>
+        <v>9302294</v>
       </c>
       <c r="D34" s="2">
-        <v>9784441</v>
+        <v>14259330</v>
       </c>
       <c r="E34" s="4">
         <v>2017</v>
@@ -2010,16 +2245,16 @@
     </row>
     <row r="35" spans="1:10" ht="21">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>274751</v>
+        <v>400413</v>
       </c>
       <c r="C35" s="2">
-        <v>252965</v>
+        <v>368677</v>
       </c>
       <c r="D35" s="2">
-        <v>21786</v>
+        <v>31736</v>
       </c>
       <c r="E35" s="4">
         <v>2017</v>
@@ -2034,16 +2269,16 @@
     </row>
     <row r="36" spans="1:10" ht="21">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>54688</v>
+        <v>79686</v>
       </c>
       <c r="C36" s="2">
-        <v>54607</v>
+        <v>79569</v>
       </c>
       <c r="D36" s="3">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E36" s="4">
         <v>2017</v>
@@ -2058,16 +2293,16 @@
     </row>
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>4756406</v>
+        <v>6931311</v>
       </c>
       <c r="C37" s="2">
-        <v>2213746</v>
+        <v>3225962</v>
       </c>
       <c r="D37" s="2">
-        <v>2542660</v>
+        <v>3705348</v>
       </c>
       <c r="E37" s="4">
         <v>2017</v>
@@ -2082,16 +2317,16 @@
     </row>
     <row r="38" spans="1:10" ht="21">
       <c r="A38" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>1100395</v>
+        <v>1603588</v>
       </c>
       <c r="C38" s="2">
-        <v>897018</v>
+        <v>1307226</v>
       </c>
       <c r="D38" s="2">
-        <v>203377</v>
+        <v>296362</v>
       </c>
       <c r="E38" s="4">
         <v>2017</v>
@@ -2106,16 +2341,16 @@
     </row>
     <row r="39" spans="1:10" ht="21">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>2386854</v>
+        <v>3477602</v>
       </c>
       <c r="C39" s="2">
-        <v>1582630</v>
+        <v>2305667</v>
       </c>
       <c r="D39" s="2">
-        <v>804224</v>
+        <v>1171935</v>
       </c>
       <c r="E39" s="4">
         <v>2017</v>
@@ -2130,16 +2365,16 @@
     </row>
     <row r="40" spans="1:10" ht="21">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>240293</v>
+        <v>350112</v>
       </c>
       <c r="C40" s="2">
-        <v>86026</v>
+        <v>125337</v>
       </c>
       <c r="D40" s="2">
-        <v>154267</v>
+        <v>224775</v>
       </c>
       <c r="E40" s="4">
         <v>2017</v>
@@ -2154,16 +2389,16 @@
     </row>
     <row r="41" spans="1:10" ht="21">
       <c r="A41" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>6600324</v>
+        <v>9611943</v>
       </c>
       <c r="C41" s="2">
-        <v>4139726</v>
+        <v>6030172</v>
       </c>
       <c r="D41" s="2">
-        <v>2460598</v>
+        <v>3581771</v>
       </c>
       <c r="E41" s="4">
         <v>2017</v>
@@ -2178,16 +2413,16 @@
     </row>
     <row r="42" spans="1:10" ht="21">
       <c r="A42" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>7385101</v>
+        <v>10762881</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>7385101</v>
+        <v>10762881</v>
       </c>
       <c r="E42" s="4">
         <v>2017</v>
@@ -2201,17 +2436,17 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="6" t="s">
-        <v>245</v>
+      <c r="A43" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>10387116</v>
+        <v>15137329</v>
       </c>
       <c r="C43" s="2">
-        <v>2379730</v>
+        <v>3468046</v>
       </c>
       <c r="D43" s="2">
-        <v>8007386</v>
+        <v>11669282</v>
       </c>
       <c r="E43" s="4">
         <v>2017</v>
@@ -2226,13 +2461,13 @@
     </row>
     <row r="44" spans="1:10" ht="21">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>8370</v>
+        <v>12178</v>
       </c>
       <c r="C44" s="2">
-        <v>8370</v>
+        <v>12178</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2250,16 +2485,16 @@
     </row>
     <row r="45" spans="1:10" ht="21">
       <c r="A45" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>979208</v>
+        <v>1427178</v>
       </c>
       <c r="C45" s="2">
-        <v>612824</v>
+        <v>893293</v>
       </c>
       <c r="D45" s="2">
-        <v>366385</v>
+        <v>533884</v>
       </c>
       <c r="E45" s="4">
         <v>2017</v>
@@ -2274,16 +2509,16 @@
     </row>
     <row r="46" spans="1:10" ht="21">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>297673</v>
+        <v>433793</v>
       </c>
       <c r="C46" s="2">
-        <v>290137</v>
+        <v>422811</v>
       </c>
       <c r="D46" s="2">
-        <v>7536</v>
+        <v>10981</v>
       </c>
       <c r="E46" s="4">
         <v>2017</v>
@@ -2298,16 +2533,16 @@
     </row>
     <row r="47" spans="1:10" ht="21">
       <c r="A47" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>53611</v>
+        <v>78192</v>
       </c>
       <c r="C47" s="2">
-        <v>50770</v>
+        <v>74051</v>
       </c>
       <c r="D47" s="2">
-        <v>2841</v>
+        <v>4141</v>
       </c>
       <c r="E47" s="4">
         <v>2017</v>
@@ -2322,16 +2557,16 @@
     </row>
     <row r="48" spans="1:10" ht="21">
       <c r="A48" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>378201</v>
+        <v>551052</v>
       </c>
       <c r="C48" s="2">
-        <v>13892</v>
+        <v>20237</v>
       </c>
       <c r="D48" s="2">
-        <v>364308</v>
+        <v>530814</v>
       </c>
       <c r="E48" s="4">
         <v>2017</v>
@@ -2346,16 +2581,16 @@
     </row>
     <row r="49" spans="1:10" ht="21">
       <c r="A49" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>161860</v>
+        <v>235758</v>
       </c>
       <c r="C49" s="2">
-        <v>122667</v>
+        <v>178649</v>
       </c>
       <c r="D49" s="2">
-        <v>39193</v>
+        <v>57109</v>
       </c>
       <c r="E49" s="4">
         <v>2017</v>
@@ -2370,16 +2605,16 @@
     </row>
     <row r="50" spans="1:10" ht="21">
       <c r="A50" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E50" s="4">
         <v>2017</v>
@@ -2394,16 +2629,16 @@
     </row>
     <row r="51" spans="1:10" ht="21">
       <c r="A51" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>9869136</v>
+        <v>14381437</v>
       </c>
       <c r="C51" s="2">
-        <v>5032990</v>
+        <v>7334325</v>
       </c>
       <c r="D51" s="2">
-        <v>4836147</v>
+        <v>7047112</v>
       </c>
       <c r="E51" s="4">
         <v>2017</v>
@@ -2418,16 +2653,16 @@
     </row>
     <row r="52" spans="1:10" ht="21">
       <c r="A52" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>427428</v>
+        <v>622990</v>
       </c>
       <c r="C52" s="2">
-        <v>427164</v>
+        <v>622605</v>
       </c>
       <c r="D52" s="3">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="E52" s="4">
         <v>2017</v>
@@ -2442,16 +2677,16 @@
     </row>
     <row r="53" spans="1:10" ht="21">
       <c r="A53" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>1420256</v>
+        <v>2069712</v>
       </c>
       <c r="C53" s="2">
-        <v>109881</v>
+        <v>160135</v>
       </c>
       <c r="D53" s="2">
-        <v>1310375</v>
+        <v>1909576</v>
       </c>
       <c r="E53" s="4">
         <v>2017</v>
@@ -2466,16 +2701,16 @@
     </row>
     <row r="54" spans="1:10" ht="21">
       <c r="A54" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>115225</v>
+        <v>167932</v>
       </c>
       <c r="C54" s="2">
-        <v>111001</v>
+        <v>161777</v>
       </c>
       <c r="D54" s="2">
-        <v>4224</v>
+        <v>6155</v>
       </c>
       <c r="E54" s="4">
         <v>2017</v>
@@ -2490,16 +2725,16 @@
     </row>
     <row r="55" spans="1:10" ht="21">
       <c r="A55" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>17401</v>
+        <v>25358</v>
       </c>
       <c r="C55" s="2">
-        <v>14482</v>
+        <v>21105</v>
       </c>
       <c r="D55" s="2">
-        <v>2919</v>
+        <v>4253</v>
       </c>
       <c r="E55" s="4">
         <v>2017</v>
@@ -2514,13 +2749,13 @@
     </row>
     <row r="56" spans="1:10" ht="21">
       <c r="A56" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>2612</v>
+        <v>3803</v>
       </c>
       <c r="C56" s="2">
-        <v>2612</v>
+        <v>3803</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -2538,16 +2773,16 @@
     </row>
     <row r="57" spans="1:10" ht="21">
       <c r="A57" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>89307</v>
+        <v>130168</v>
       </c>
       <c r="C57" s="2">
-        <v>79729</v>
+        <v>116204</v>
       </c>
       <c r="D57" s="2">
-        <v>9578</v>
+        <v>13964</v>
       </c>
       <c r="E57" s="4">
         <v>2017</v>
@@ -2562,13 +2797,13 @@
     </row>
     <row r="58" spans="1:10" ht="21">
       <c r="A58" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="C58" s="3">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -2586,13 +2821,13 @@
     </row>
     <row r="59" spans="1:10" ht="21">
       <c r="A59" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>4421</v>
+        <v>6442</v>
       </c>
       <c r="C59" s="2">
-        <v>4421</v>
+        <v>6441</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
@@ -2610,16 +2845,16 @@
     </row>
     <row r="60" spans="1:10" ht="21">
       <c r="A60" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>1262</v>
+        <v>1840</v>
       </c>
       <c r="C60" s="3">
-        <v>522</v>
-      </c>
-      <c r="D60" s="3">
-        <v>740</v>
+        <v>761</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1079</v>
       </c>
       <c r="E60" s="4">
         <v>2017</v>
@@ -2634,16 +2869,16 @@
     </row>
     <row r="61" spans="1:10" ht="21">
       <c r="A61" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4">
         <v>2017</v>
@@ -2658,16 +2893,16 @@
     </row>
     <row r="62" spans="1:10" ht="21">
       <c r="A62" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>56756</v>
+        <v>82783</v>
       </c>
       <c r="C62" s="2">
-        <v>7312</v>
+        <v>10656</v>
       </c>
       <c r="D62" s="2">
-        <v>49444</v>
+        <v>72127</v>
       </c>
       <c r="E62" s="4">
         <v>2017</v>
@@ -2682,13 +2917,13 @@
     </row>
     <row r="63" spans="1:10" ht="21">
       <c r="A63" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>3224</v>
+        <v>4699</v>
       </c>
       <c r="C63" s="2">
-        <v>3224</v>
+        <v>4699</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -2706,16 +2941,16 @@
     </row>
     <row r="64" spans="1:10" ht="21">
       <c r="A64" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>259855</v>
+        <v>378625</v>
       </c>
       <c r="C64" s="2">
-        <v>28572</v>
+        <v>41630</v>
       </c>
       <c r="D64" s="2">
-        <v>231283</v>
+        <v>336995</v>
       </c>
       <c r="E64" s="4">
         <v>2017</v>
@@ -2730,16 +2965,16 @@
     </row>
     <row r="65" spans="1:10" ht="21">
       <c r="A65" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>122994</v>
+        <v>179260</v>
       </c>
       <c r="C65" s="2">
-        <v>122993</v>
+        <v>179260</v>
       </c>
       <c r="D65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="4">
         <v>2017</v>
@@ -2754,16 +2989,16 @@
     </row>
     <row r="66" spans="1:10" ht="21">
       <c r="A66" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>570973</v>
+        <v>831911</v>
       </c>
       <c r="C66" s="2">
-        <v>472630</v>
+        <v>688620</v>
       </c>
       <c r="D66" s="2">
-        <v>98343</v>
+        <v>143291</v>
       </c>
       <c r="E66" s="4">
         <v>2017</v>
@@ -2778,16 +3013,16 @@
     </row>
     <row r="67" spans="1:10" ht="21">
       <c r="A67" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>151764</v>
+        <v>221142</v>
       </c>
       <c r="C67" s="2">
-        <v>11488</v>
+        <v>16755</v>
       </c>
       <c r="D67" s="2">
-        <v>140275</v>
+        <v>204388</v>
       </c>
       <c r="E67" s="4">
         <v>2017</v>
@@ -2802,16 +3037,16 @@
     </row>
     <row r="68" spans="1:10" ht="21">
       <c r="A68" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>167467</v>
+        <v>244055</v>
       </c>
       <c r="C68" s="2">
-        <v>144564</v>
+        <v>210682</v>
       </c>
       <c r="D68" s="2">
-        <v>22903</v>
+        <v>33373</v>
       </c>
       <c r="E68" s="4">
         <v>2017</v>
@@ -2826,16 +3061,16 @@
     </row>
     <row r="69" spans="1:10" ht="21">
       <c r="A69" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>102087</v>
+        <v>148779</v>
       </c>
       <c r="C69" s="2">
-        <v>14818</v>
+        <v>21597</v>
       </c>
       <c r="D69" s="2">
-        <v>87269</v>
+        <v>127182</v>
       </c>
       <c r="E69" s="4">
         <v>2017</v>
@@ -2850,16 +3085,16 @@
     </row>
     <row r="70" spans="1:10" ht="21">
       <c r="A70" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>27725</v>
+        <v>40408</v>
       </c>
       <c r="C70" s="2">
-        <v>22732</v>
+        <v>33132</v>
       </c>
       <c r="D70" s="2">
-        <v>4993</v>
+        <v>7276</v>
       </c>
       <c r="E70" s="4">
         <v>2017</v>
@@ -2874,16 +3109,16 @@
     </row>
     <row r="71" spans="1:10" ht="21">
       <c r="A71" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>343580</v>
+        <v>500668</v>
       </c>
       <c r="C71" s="2">
-        <v>240750</v>
+        <v>350858</v>
       </c>
       <c r="D71" s="2">
-        <v>102830</v>
+        <v>149809</v>
       </c>
       <c r="E71" s="4">
         <v>2017</v>
@@ -2898,16 +3133,16 @@
     </row>
     <row r="72" spans="1:10" ht="21">
       <c r="A72" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>141412</v>
+        <v>205970</v>
       </c>
       <c r="C72" s="2">
-        <v>65932</v>
+        <v>96079</v>
       </c>
       <c r="D72" s="2">
-        <v>75480</v>
+        <v>109891</v>
       </c>
       <c r="E72" s="4">
         <v>2017</v>
@@ -2922,13 +3157,13 @@
     </row>
     <row r="73" spans="1:10" ht="21">
       <c r="A73" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="3">
-        <v>799</v>
-      </c>
-      <c r="C73" s="3">
-        <v>799</v>
+        <v>77</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1164</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1164</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -2946,16 +3181,16 @@
     </row>
     <row r="74" spans="1:10" ht="21">
       <c r="A74" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>90428</v>
+        <v>131774</v>
       </c>
       <c r="C74" s="2">
-        <v>81964</v>
+        <v>119444</v>
       </c>
       <c r="D74" s="2">
-        <v>8464</v>
+        <v>12330</v>
       </c>
       <c r="E74" s="4">
         <v>2017</v>
@@ -2970,16 +3205,16 @@
     </row>
     <row r="75" spans="1:10" ht="21">
       <c r="A75" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>267006</v>
+        <v>389105</v>
       </c>
       <c r="C75" s="2">
-        <v>260027</v>
+        <v>378933</v>
       </c>
       <c r="D75" s="2">
-        <v>6979</v>
+        <v>10171</v>
       </c>
       <c r="E75" s="4">
         <v>2017</v>
@@ -2994,16 +3229,16 @@
     </row>
     <row r="76" spans="1:10" ht="21">
       <c r="A76" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>105744</v>
+        <v>153849</v>
       </c>
       <c r="C76" s="2">
-        <v>105609</v>
+        <v>153652</v>
       </c>
       <c r="D76" s="3">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="E76" s="4">
         <v>2017</v>
@@ -3018,16 +3253,16 @@
     </row>
     <row r="77" spans="1:10" ht="21">
       <c r="A77" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>122383</v>
+        <v>178370</v>
       </c>
       <c r="C77" s="2">
-        <v>53968</v>
+        <v>78648</v>
       </c>
       <c r="D77" s="2">
-        <v>68415</v>
+        <v>99722</v>
       </c>
       <c r="E77" s="4">
         <v>2017</v>
@@ -3042,16 +3277,16 @@
     </row>
     <row r="78" spans="1:10" ht="21">
       <c r="A78" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>77508</v>
+        <v>112955</v>
       </c>
       <c r="C78" s="2">
-        <v>64361</v>
+        <v>93798</v>
       </c>
       <c r="D78" s="2">
-        <v>13147</v>
+        <v>19158</v>
       </c>
       <c r="E78" s="4">
         <v>2017</v>
@@ -3066,16 +3301,16 @@
     </row>
     <row r="79" spans="1:10" ht="21">
       <c r="A79" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>19885</v>
+        <v>28977</v>
       </c>
       <c r="C79" s="2">
-        <v>16842</v>
+        <v>24544</v>
       </c>
       <c r="D79" s="2">
-        <v>3043</v>
+        <v>4433</v>
       </c>
       <c r="E79" s="4">
         <v>2017</v>
@@ -3090,16 +3325,16 @@
     </row>
     <row r="80" spans="1:10" ht="21">
       <c r="A80" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>22818</v>
+        <v>33261</v>
       </c>
       <c r="C80" s="2">
-        <v>18850</v>
+        <v>27479</v>
       </c>
       <c r="D80" s="2">
-        <v>3968</v>
+        <v>5782</v>
       </c>
       <c r="E80" s="4">
         <v>2017</v>
@@ -3114,16 +3349,16 @@
     </row>
     <row r="81" spans="1:10" ht="21">
       <c r="A81" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>109443</v>
+        <v>159489</v>
       </c>
       <c r="C81" s="2">
-        <v>53260</v>
+        <v>77614</v>
       </c>
       <c r="D81" s="2">
-        <v>56183</v>
+        <v>81875</v>
       </c>
       <c r="E81" s="4">
         <v>2017</v>
@@ -3138,16 +3373,16 @@
     </row>
     <row r="82" spans="1:10" ht="21">
       <c r="A82" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>39002</v>
+        <v>56837</v>
       </c>
       <c r="C82" s="2">
-        <v>37685</v>
+        <v>54919</v>
       </c>
       <c r="D82" s="2">
-        <v>1317</v>
+        <v>1919</v>
       </c>
       <c r="E82" s="4">
         <v>2017</v>
@@ -3162,16 +3397,16 @@
     </row>
     <row r="83" spans="1:10" ht="21">
       <c r="A83" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>215467</v>
+        <v>313956</v>
       </c>
       <c r="C83" s="2">
-        <v>175743</v>
+        <v>256064</v>
       </c>
       <c r="D83" s="2">
-        <v>39724</v>
+        <v>57892</v>
       </c>
       <c r="E83" s="4">
         <v>2017</v>
@@ -3186,16 +3421,16 @@
     </row>
     <row r="84" spans="1:10" ht="21">
       <c r="A84" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>106155</v>
+        <v>154697</v>
       </c>
       <c r="C84" s="2">
-        <v>76473</v>
+        <v>111447</v>
       </c>
       <c r="D84" s="2">
-        <v>29683</v>
+        <v>43250</v>
       </c>
       <c r="E84" s="4">
         <v>2017</v>
@@ -3210,16 +3445,16 @@
     </row>
     <row r="85" spans="1:10" ht="21">
       <c r="A85" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>29754</v>
+        <v>43358</v>
       </c>
       <c r="C85" s="2">
-        <v>16901</v>
+        <v>24632</v>
       </c>
       <c r="D85" s="2">
-        <v>12852</v>
+        <v>18726</v>
       </c>
       <c r="E85" s="4">
         <v>2017</v>
@@ -3234,16 +3469,16 @@
     </row>
     <row r="86" spans="1:10" ht="21">
       <c r="A86" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>17689</v>
+        <v>25776</v>
       </c>
       <c r="C86" s="2">
-        <v>7772</v>
+        <v>11326</v>
       </c>
       <c r="D86" s="2">
-        <v>9917</v>
+        <v>14450</v>
       </c>
       <c r="E86" s="4">
         <v>2017</v>
@@ -3258,16 +3493,16 @@
     </row>
     <row r="87" spans="1:10" ht="21">
       <c r="A87" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>772300</v>
+        <v>1125435</v>
       </c>
       <c r="C87" s="2">
-        <v>668356</v>
+        <v>973989</v>
       </c>
       <c r="D87" s="2">
-        <v>103944</v>
+        <v>151446</v>
       </c>
       <c r="E87" s="4">
         <v>2017</v>
@@ -3282,13 +3517,13 @@
     </row>
     <row r="88" spans="1:10" ht="21">
       <c r="A88" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>6791</v>
+        <v>9899</v>
       </c>
       <c r="C88" s="2">
-        <v>6790</v>
+        <v>9898</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -3306,16 +3541,16 @@
     </row>
     <row r="89" spans="1:10" ht="21">
       <c r="A89" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>7589</v>
+        <v>11057</v>
       </c>
       <c r="C89" s="2">
-        <v>6598</v>
-      </c>
-      <c r="D89" s="3">
-        <v>992</v>
+        <v>9612</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1445</v>
       </c>
       <c r="E89" s="4">
         <v>2017</v>
@@ -3330,13 +3565,13 @@
     </row>
     <row r="90" spans="1:10" ht="21">
       <c r="A90" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B90" s="3">
-        <v>398</v>
+        <v>581</v>
       </c>
       <c r="C90" s="3">
-        <v>398</v>
+        <v>581</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -3354,16 +3589,16 @@
     </row>
     <row r="91" spans="1:10" ht="21">
       <c r="A91" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>127172</v>
+        <v>185340</v>
       </c>
       <c r="C91" s="2">
-        <v>107221</v>
+        <v>156247</v>
       </c>
       <c r="D91" s="2">
-        <v>19951</v>
+        <v>29093</v>
       </c>
       <c r="E91" s="4">
         <v>2017</v>
@@ -3378,13 +3613,13 @@
     </row>
     <row r="92" spans="1:10" ht="21">
       <c r="A92" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>3742</v>
+        <v>5454</v>
       </c>
       <c r="C92" s="2">
-        <v>3742</v>
+        <v>5454</v>
       </c>
       <c r="D92" s="3">
         <v>0</v>
@@ -3402,16 +3637,16 @@
     </row>
     <row r="93" spans="1:10" ht="21">
       <c r="A93" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>42184</v>
+        <v>61475</v>
       </c>
       <c r="C93" s="2">
-        <v>13911</v>
+        <v>20275</v>
       </c>
       <c r="D93" s="2">
-        <v>28273</v>
+        <v>41201</v>
       </c>
       <c r="E93" s="4">
         <v>2017</v>
@@ -3426,16 +3661,16 @@
     </row>
     <row r="94" spans="1:10" ht="21">
       <c r="A94" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>19739</v>
+        <v>28762</v>
       </c>
       <c r="C94" s="2">
-        <v>19078</v>
+        <v>27799</v>
       </c>
       <c r="D94" s="3">
-        <v>661</v>
+        <v>963</v>
       </c>
       <c r="E94" s="4">
         <v>2017</v>
@@ -3450,16 +3685,16 @@
     </row>
     <row r="95" spans="1:10" ht="21">
       <c r="A95" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>2304065</v>
+        <v>3357353</v>
       </c>
       <c r="C95" s="2">
-        <v>755300</v>
+        <v>1100741</v>
       </c>
       <c r="D95" s="2">
-        <v>1548765</v>
+        <v>2256611</v>
       </c>
       <c r="E95" s="4">
         <v>2017</v>
@@ -3474,16 +3709,16 @@
     </row>
     <row r="96" spans="1:10" ht="21">
       <c r="A96" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="4">
         <v>2017</v>
@@ -3498,16 +3733,16 @@
     </row>
     <row r="97" spans="1:10" ht="21">
       <c r="A97" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>156555</v>
+        <v>228153</v>
       </c>
       <c r="C97" s="2">
-        <v>124416</v>
+        <v>181316</v>
       </c>
       <c r="D97" s="2">
-        <v>32139</v>
+        <v>46837</v>
       </c>
       <c r="E97" s="4">
         <v>2017</v>
@@ -3522,16 +3757,16 @@
     </row>
     <row r="98" spans="1:10" ht="21">
       <c r="A98" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>185081</v>
+        <v>269679</v>
       </c>
       <c r="C98" s="2">
-        <v>148572</v>
+        <v>216478</v>
       </c>
       <c r="D98" s="2">
-        <v>36509</v>
+        <v>53200</v>
       </c>
       <c r="E98" s="4">
         <v>2017</v>
@@ -3546,16 +3781,16 @@
     </row>
     <row r="99" spans="1:10" ht="21">
       <c r="A99" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>101592</v>
+        <v>148022</v>
       </c>
       <c r="C99" s="2">
-        <v>95814</v>
+        <v>139604</v>
       </c>
       <c r="D99" s="2">
-        <v>5778</v>
+        <v>8417</v>
       </c>
       <c r="E99" s="4">
         <v>2017</v>
@@ -3570,16 +3805,16 @@
     </row>
     <row r="100" spans="1:10" ht="21">
       <c r="A100" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>85830</v>
+        <v>125109</v>
       </c>
       <c r="C100" s="2">
-        <v>71538</v>
+        <v>104266</v>
       </c>
       <c r="D100" s="2">
-        <v>14291</v>
+        <v>20843</v>
       </c>
       <c r="E100" s="4">
         <v>2017</v>
@@ -3594,16 +3829,16 @@
     </row>
     <row r="101" spans="1:10" ht="21">
       <c r="A101" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>33601</v>
+        <v>48961</v>
       </c>
       <c r="C101" s="2">
-        <v>30800</v>
+        <v>44880</v>
       </c>
       <c r="D101" s="2">
-        <v>2801</v>
+        <v>4082</v>
       </c>
       <c r="E101" s="4">
         <v>2017</v>
@@ -3618,16 +3853,16 @@
     </row>
     <row r="102" spans="1:10" ht="21">
       <c r="A102" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>9774</v>
+        <v>14245</v>
       </c>
       <c r="C102" s="2">
-        <v>9426</v>
+        <v>13738</v>
       </c>
       <c r="D102" s="3">
-        <v>348</v>
+        <v>508</v>
       </c>
       <c r="E102" s="4">
         <v>2017</v>
@@ -3642,16 +3877,16 @@
     </row>
     <row r="103" spans="1:10" ht="21">
       <c r="A103" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>201653</v>
+        <v>293932</v>
       </c>
       <c r="C103" s="2">
-        <v>51249</v>
+        <v>74687</v>
       </c>
       <c r="D103" s="2">
-        <v>150405</v>
+        <v>219245</v>
       </c>
       <c r="E103" s="4">
         <v>2017</v>
@@ -3666,16 +3901,16 @@
     </row>
     <row r="104" spans="1:10" ht="21">
       <c r="A104" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>230993</v>
+        <v>336586</v>
       </c>
       <c r="C104" s="2">
-        <v>30704</v>
+        <v>44746</v>
       </c>
       <c r="D104" s="2">
-        <v>200289</v>
+        <v>291839</v>
       </c>
       <c r="E104" s="4">
         <v>2017</v>
@@ -3690,16 +3925,16 @@
     </row>
     <row r="105" spans="1:10" ht="21">
       <c r="A105" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>196161</v>
+        <v>285834</v>
       </c>
       <c r="C105" s="2">
-        <v>19969</v>
+        <v>29110</v>
       </c>
       <c r="D105" s="2">
-        <v>176191</v>
+        <v>256724</v>
       </c>
       <c r="E105" s="4">
         <v>2017</v>
@@ -3714,16 +3949,16 @@
     </row>
     <row r="106" spans="1:10" ht="21">
       <c r="A106" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>6891</v>
+        <v>10043</v>
       </c>
       <c r="C106" s="2">
-        <v>4041</v>
+        <v>5890</v>
       </c>
       <c r="D106" s="2">
-        <v>2850</v>
+        <v>4153</v>
       </c>
       <c r="E106" s="4">
         <v>2017</v>
@@ -3738,16 +3973,16 @@
     </row>
     <row r="107" spans="1:10" ht="21">
       <c r="A107" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B107" s="3">
-        <v>419</v>
+        <v>611</v>
       </c>
       <c r="C107" s="3">
-        <v>419</v>
+        <v>611</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="4">
         <v>2017</v>
@@ -3762,16 +3997,16 @@
     </row>
     <row r="108" spans="1:10" ht="21">
       <c r="A108" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2">
-        <v>2641</v>
+        <v>3848</v>
       </c>
       <c r="C108" s="2">
-        <v>2602</v>
+        <v>3793</v>
       </c>
       <c r="D108" s="3">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E108" s="4">
         <v>2017</v>
@@ -3786,16 +4021,16 @@
     </row>
     <row r="109" spans="1:10" ht="21">
       <c r="A109" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>20738</v>
+        <v>30216</v>
       </c>
       <c r="C109" s="2">
-        <v>2923</v>
+        <v>4259</v>
       </c>
       <c r="D109" s="2">
-        <v>17815</v>
+        <v>25957</v>
       </c>
       <c r="E109" s="4">
         <v>2017</v>
@@ -3810,16 +4045,16 @@
     </row>
     <row r="110" spans="1:10" ht="21">
       <c r="A110" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2">
-        <v>2372</v>
+        <v>3456</v>
       </c>
       <c r="C110" s="2">
-        <v>2372</v>
+        <v>3456</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E110" s="4">
         <v>2017</v>
@@ -3834,16 +4069,16 @@
     </row>
     <row r="111" spans="1:10" ht="21">
       <c r="A111" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2">
-        <v>100217</v>
+        <v>146095</v>
       </c>
       <c r="C111" s="2">
-        <v>1152</v>
+        <v>1678</v>
       </c>
       <c r="D111" s="2">
-        <v>99066</v>
+        <v>144417</v>
       </c>
       <c r="E111" s="4">
         <v>2017</v>
@@ -3858,16 +4093,16 @@
     </row>
     <row r="112" spans="1:10" ht="21">
       <c r="A112" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
-        <v>414</v>
+        <v>604</v>
       </c>
       <c r="C112" s="3">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="D112" s="3">
-        <v>291</v>
+        <v>424</v>
       </c>
       <c r="E112" s="4">
         <v>2017</v>
@@ -3882,16 +4117,16 @@
     </row>
     <row r="113" spans="1:10" ht="21">
       <c r="A113" s="5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2">
-        <v>1341142</v>
+        <v>1954512</v>
       </c>
       <c r="C113" s="2">
-        <v>873280</v>
+        <v>1272711</v>
       </c>
       <c r="D113" s="2">
-        <v>467862</v>
+        <v>681800</v>
       </c>
       <c r="E113" s="4">
         <v>2017</v>
@@ -3906,16 +4141,16 @@
     </row>
     <row r="114" spans="1:10" ht="21">
       <c r="A114" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>742421</v>
+        <v>1081633</v>
       </c>
       <c r="C114" s="2">
-        <v>483120</v>
+        <v>703898</v>
       </c>
       <c r="D114" s="2">
-        <v>259301</v>
+        <v>377736</v>
       </c>
       <c r="E114" s="4">
         <v>2017</v>
@@ -3930,16 +4165,16 @@
     </row>
     <row r="115" spans="1:10" ht="21">
       <c r="A115" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2">
-        <v>4635685</v>
+        <v>6754849</v>
       </c>
       <c r="C115" s="2">
-        <v>3088064</v>
+        <v>4500205</v>
       </c>
       <c r="D115" s="2">
-        <v>1547621</v>
+        <v>2254644</v>
       </c>
       <c r="E115" s="4">
         <v>2017</v>
@@ -3954,16 +4189,16 @@
     </row>
     <row r="116" spans="1:10" ht="21">
       <c r="A116" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>9423954</v>
+        <v>13735480</v>
       </c>
       <c r="C116" s="2">
-        <v>3829184</v>
+        <v>5580902</v>
       </c>
       <c r="D116" s="2">
-        <v>5594770</v>
+        <v>8154578</v>
       </c>
       <c r="E116" s="4">
         <v>2017</v>
@@ -3978,16 +4213,16 @@
     </row>
     <row r="117" spans="1:10" ht="21">
       <c r="A117" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2">
-        <v>2941349</v>
+        <v>4286062</v>
       </c>
       <c r="C117" s="2">
-        <v>1392915</v>
+        <v>2029885</v>
       </c>
       <c r="D117" s="2">
-        <v>1548434</v>
+        <v>2256177</v>
       </c>
       <c r="E117" s="4">
         <v>2017</v>
@@ -4002,16 +4237,16 @@
     </row>
     <row r="118" spans="1:10" ht="21">
       <c r="A118" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2">
-        <v>643807</v>
+        <v>937974</v>
       </c>
       <c r="C118" s="2">
-        <v>143183</v>
+        <v>208654</v>
       </c>
       <c r="D118" s="2">
-        <v>500624</v>
+        <v>729320</v>
       </c>
       <c r="E118" s="4">
         <v>2017</v>
@@ -4026,16 +4261,16 @@
     </row>
     <row r="119" spans="1:10" ht="21">
       <c r="A119" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2">
-        <v>2671281</v>
+        <v>3892627</v>
       </c>
       <c r="C119" s="2">
-        <v>1541893</v>
+        <v>2247183</v>
       </c>
       <c r="D119" s="2">
-        <v>1129388</v>
+        <v>1645444</v>
       </c>
       <c r="E119" s="4">
         <v>2017</v>
@@ -4050,16 +4285,16 @@
     </row>
     <row r="120" spans="1:10" ht="21">
       <c r="A120" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2">
-        <v>60569</v>
+        <v>88294</v>
       </c>
       <c r="C120" s="2">
-        <v>41003</v>
+        <v>59778</v>
       </c>
       <c r="D120" s="2">
-        <v>19566</v>
+        <v>28516</v>
       </c>
       <c r="E120" s="4">
         <v>2017</v>
@@ -4074,16 +4309,16 @@
     </row>
     <row r="121" spans="1:10" ht="21">
       <c r="A121" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2">
-        <v>3901533</v>
+        <v>5686149</v>
       </c>
       <c r="C121" s="2">
-        <v>3229309</v>
+        <v>4706640</v>
       </c>
       <c r="D121" s="2">
-        <v>672225</v>
+        <v>979509</v>
       </c>
       <c r="E121" s="4">
         <v>2017</v>
@@ -4098,16 +4333,16 @@
     </row>
     <row r="122" spans="1:10" ht="21">
       <c r="A122" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>249132</v>
+        <v>363055</v>
       </c>
       <c r="C122" s="2">
-        <v>226017</v>
+        <v>329368</v>
       </c>
       <c r="D122" s="2">
-        <v>23115</v>
+        <v>33688</v>
       </c>
       <c r="E122" s="4">
         <v>2017</v>
@@ -4122,16 +4357,16 @@
     </row>
     <row r="123" spans="1:10" ht="21">
       <c r="A123" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2">
-        <v>316366</v>
+        <v>461563</v>
       </c>
       <c r="C123" s="2">
-        <v>201911</v>
+        <v>294772</v>
       </c>
       <c r="D123" s="2">
-        <v>114455</v>
+        <v>166791</v>
       </c>
       <c r="E123" s="4">
         <v>2017</v>
@@ -4146,16 +4381,16 @@
     </row>
     <row r="124" spans="1:10" ht="21">
       <c r="A124" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2">
-        <v>1632874</v>
+        <v>2380037</v>
       </c>
       <c r="C124" s="2">
-        <v>1183076</v>
+        <v>1724194</v>
       </c>
       <c r="D124" s="2">
-        <v>449798</v>
+        <v>655843</v>
       </c>
       <c r="E124" s="4">
         <v>2017</v>
@@ -4170,16 +4405,16 @@
     </row>
     <row r="125" spans="1:10" ht="21">
       <c r="A125" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2">
-        <v>37720</v>
+        <v>54975</v>
       </c>
       <c r="C125" s="2">
-        <v>24583</v>
+        <v>35832</v>
       </c>
       <c r="D125" s="2">
-        <v>13136</v>
+        <v>19143</v>
       </c>
       <c r="E125" s="4">
         <v>2017</v>
@@ -4194,16 +4429,16 @@
     </row>
     <row r="126" spans="1:10" ht="21">
       <c r="A126" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C126" s="3">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="D126" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E126" s="4">
         <v>2017</v>
@@ -4218,16 +4453,16 @@
     </row>
     <row r="127" spans="1:10" ht="21">
       <c r="A127" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2">
-        <v>443705</v>
+        <v>646714</v>
       </c>
       <c r="C127" s="2">
-        <v>131253</v>
+        <v>191258</v>
       </c>
       <c r="D127" s="2">
-        <v>312452</v>
+        <v>455456</v>
       </c>
       <c r="E127" s="4">
         <v>2017</v>
@@ -4242,16 +4477,16 @@
     </row>
     <row r="128" spans="1:10" ht="21">
       <c r="A128" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2">
-        <v>111210</v>
+        <v>162097</v>
       </c>
       <c r="C128" s="2">
-        <v>54848</v>
+        <v>79930</v>
       </c>
       <c r="D128" s="2">
-        <v>56362</v>
+        <v>82167</v>
       </c>
       <c r="E128" s="4">
         <v>2017</v>
@@ -4266,16 +4501,16 @@
     </row>
     <row r="129" spans="1:10" ht="21">
       <c r="A129" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>456146</v>
+        <v>664606</v>
       </c>
       <c r="C129" s="2">
-        <v>151840</v>
+        <v>221260</v>
       </c>
       <c r="D129" s="2">
-        <v>304307</v>
+        <v>443346</v>
       </c>
       <c r="E129" s="4">
         <v>2017</v>
@@ -4290,13 +4525,13 @@
     </row>
     <row r="130" spans="1:10" ht="21">
       <c r="A130" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C130" s="3">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D130" s="3">
         <v>0</v>
@@ -4314,16 +4549,16 @@
     </row>
     <row r="131" spans="1:10" ht="21">
       <c r="A131" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2">
-        <v>608507</v>
+        <v>886768</v>
       </c>
       <c r="C131" s="2">
-        <v>356494</v>
+        <v>519502</v>
       </c>
       <c r="D131" s="2">
-        <v>252013</v>
+        <v>367266</v>
       </c>
       <c r="E131" s="4">
         <v>2017</v>
@@ -4338,16 +4573,16 @@
     </row>
     <row r="132" spans="1:10" ht="21">
       <c r="A132" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2">
-        <v>11083</v>
+        <v>16156</v>
       </c>
       <c r="C132" s="2">
-        <v>8352</v>
+        <v>12171</v>
       </c>
       <c r="D132" s="2">
-        <v>2732</v>
+        <v>3985</v>
       </c>
       <c r="E132" s="4">
         <v>2017</v>
@@ -4362,16 +4597,16 @@
     </row>
     <row r="133" spans="1:10" ht="21">
       <c r="A133" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2">
-        <v>10518</v>
+        <v>15347</v>
       </c>
       <c r="C133" s="2">
-        <v>2362</v>
+        <v>3442</v>
       </c>
       <c r="D133" s="2">
-        <v>8155</v>
+        <v>11905</v>
       </c>
       <c r="E133" s="4">
         <v>2017</v>
@@ -4386,16 +4621,16 @@
     </row>
     <row r="134" spans="1:10" ht="21">
       <c r="A134" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2">
-        <v>212331</v>
+        <v>309490</v>
       </c>
       <c r="C134" s="2">
-        <v>174242</v>
+        <v>253983</v>
       </c>
       <c r="D134" s="2">
-        <v>38088</v>
+        <v>55507</v>
       </c>
       <c r="E134" s="4">
         <v>2017</v>
@@ -4410,16 +4645,16 @@
     </row>
     <row r="135" spans="1:10" ht="21">
       <c r="A135" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2">
-        <v>1275</v>
-      </c>
-      <c r="C135" s="3">
-        <v>888</v>
+        <v>1858</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1294</v>
       </c>
       <c r="D135" s="3">
-        <v>387</v>
+        <v>564</v>
       </c>
       <c r="E135" s="4">
         <v>2017</v>
@@ -4434,16 +4669,16 @@
     </row>
     <row r="136" spans="1:10" ht="21">
       <c r="A136" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2">
-        <v>395211</v>
+        <v>575939</v>
       </c>
       <c r="C136" s="2">
-        <v>140701</v>
+        <v>205020</v>
       </c>
       <c r="D136" s="2">
-        <v>254510</v>
+        <v>370919</v>
       </c>
       <c r="E136" s="4">
         <v>2017</v>
@@ -4458,16 +4693,16 @@
     </row>
     <row r="137" spans="1:10" ht="21">
       <c r="A137" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>1107009</v>
+        <v>1613451</v>
       </c>
       <c r="C137" s="2">
-        <v>940409</v>
+        <v>1370587</v>
       </c>
       <c r="D137" s="2">
-        <v>166600</v>
+        <v>242865</v>
       </c>
       <c r="E137" s="4">
         <v>2017</v>
@@ -4482,16 +4717,16 @@
     </row>
     <row r="138" spans="1:10" ht="21">
       <c r="A138" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2">
-        <v>301781</v>
+        <v>439878</v>
       </c>
       <c r="C138" s="2">
-        <v>200035</v>
+        <v>291534</v>
       </c>
       <c r="D138" s="2">
-        <v>101747</v>
+        <v>148344</v>
       </c>
       <c r="E138" s="4">
         <v>2017</v>
@@ -4506,16 +4741,16 @@
     </row>
     <row r="139" spans="1:10" ht="21">
       <c r="A139" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B139" s="3">
-        <v>441</v>
+        <v>643</v>
       </c>
       <c r="C139" s="3">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="D139" s="3">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="E139" s="4">
         <v>2017</v>
@@ -4530,16 +4765,16 @@
     </row>
     <row r="140" spans="1:10" ht="21">
       <c r="A140" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2">
-        <v>849778</v>
+        <v>1236992</v>
       </c>
       <c r="C140" s="2">
-        <v>388787</v>
+        <v>566404</v>
       </c>
       <c r="D140" s="2">
-        <v>460991</v>
+        <v>670588</v>
       </c>
       <c r="E140" s="4">
         <v>2017</v>
@@ -4554,16 +4789,16 @@
     </row>
     <row r="141" spans="1:10" ht="21">
       <c r="A141" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2">
-        <v>2465086</v>
+        <v>3592471</v>
       </c>
       <c r="C141" s="2">
-        <v>200110</v>
+        <v>291654</v>
       </c>
       <c r="D141" s="2">
-        <v>2264976</v>
+        <v>3300817</v>
       </c>
       <c r="E141" s="4">
         <v>2017</v>
@@ -4578,16 +4813,16 @@
     </row>
     <row r="142" spans="1:10" ht="21">
       <c r="A142" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2">
-        <v>68919</v>
+        <v>100437</v>
       </c>
       <c r="C142" s="2">
-        <v>57094</v>
+        <v>83199</v>
       </c>
       <c r="D142" s="2">
-        <v>11825</v>
+        <v>17238</v>
       </c>
       <c r="E142" s="4">
         <v>2017</v>
@@ -4602,16 +4837,16 @@
     </row>
     <row r="143" spans="1:10" ht="21">
       <c r="A143" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2">
-        <v>67225</v>
+        <v>97990</v>
       </c>
       <c r="C143" s="2">
-        <v>57155</v>
+        <v>83299</v>
       </c>
       <c r="D143" s="2">
-        <v>10070</v>
+        <v>14691</v>
       </c>
       <c r="E143" s="4">
         <v>2017</v>
@@ -4626,16 +4861,16 @@
     </row>
     <row r="144" spans="1:10" ht="21">
       <c r="A144" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2">
-        <v>92504</v>
+        <v>134809</v>
       </c>
       <c r="C144" s="2">
-        <v>80422</v>
+        <v>117194</v>
       </c>
       <c r="D144" s="2">
-        <v>12082</v>
+        <v>17615</v>
       </c>
       <c r="E144" s="4">
         <v>2017</v>
@@ -4650,16 +4885,16 @@
     </row>
     <row r="145" spans="1:10" ht="21">
       <c r="A145" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2">
-        <v>51021</v>
+        <v>74350</v>
       </c>
       <c r="C145" s="2">
-        <v>44493</v>
+        <v>64837</v>
       </c>
       <c r="D145" s="2">
-        <v>6529</v>
+        <v>9513</v>
       </c>
       <c r="E145" s="4">
         <v>2017</v>
@@ -4674,16 +4909,16 @@
     </row>
     <row r="146" spans="1:10" ht="21">
       <c r="A146" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>17616</v>
+        <v>25668</v>
       </c>
       <c r="C146" s="2">
-        <v>6899</v>
+        <v>10054</v>
       </c>
       <c r="D146" s="2">
-        <v>10717</v>
+        <v>15615</v>
       </c>
       <c r="E146" s="4">
         <v>2017</v>
@@ -4698,16 +4933,16 @@
     </row>
     <row r="147" spans="1:10" ht="21">
       <c r="A147" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2">
-        <v>55491</v>
+        <v>80862</v>
       </c>
       <c r="C147" s="2">
-        <v>14514</v>
+        <v>21157</v>
       </c>
       <c r="D147" s="2">
-        <v>40977</v>
+        <v>59705</v>
       </c>
       <c r="E147" s="4">
         <v>2017</v>
@@ -4722,16 +4957,16 @@
     </row>
     <row r="148" spans="1:10" ht="21">
       <c r="A148" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2">
-        <v>81465</v>
+        <v>118690</v>
       </c>
       <c r="C148" s="2">
-        <v>34325</v>
+        <v>50012</v>
       </c>
       <c r="D148" s="2">
-        <v>47140</v>
+        <v>68678</v>
       </c>
       <c r="E148" s="4">
         <v>2017</v>
@@ -4746,16 +4981,16 @@
     </row>
     <row r="149" spans="1:10" ht="21">
       <c r="A149" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2">
-        <v>5432</v>
+        <v>7915</v>
       </c>
       <c r="C149" s="2">
-        <v>4308</v>
+        <v>6277</v>
       </c>
       <c r="D149" s="2">
-        <v>1124</v>
+        <v>1638</v>
       </c>
       <c r="E149" s="4">
         <v>2017</v>
@@ -4770,16 +5005,16 @@
     </row>
     <row r="150" spans="1:10" ht="21">
       <c r="A150" s="5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2">
-        <v>4473741</v>
+        <v>6519014</v>
       </c>
       <c r="C150" s="2">
-        <v>2065287</v>
+        <v>3009643</v>
       </c>
       <c r="D150" s="2">
-        <v>2408454</v>
+        <v>3509371</v>
       </c>
       <c r="E150" s="4">
         <v>2017</v>
@@ -4794,16 +5029,16 @@
     </row>
     <row r="151" spans="1:10" ht="21">
       <c r="A151" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>313468</v>
+        <v>456800</v>
       </c>
       <c r="C151" s="2">
-        <v>247925</v>
+        <v>361281</v>
       </c>
       <c r="D151" s="2">
-        <v>65543</v>
+        <v>95520</v>
       </c>
       <c r="E151" s="4">
         <v>2017</v>
@@ -4818,16 +5053,16 @@
     </row>
     <row r="152" spans="1:10" ht="21">
       <c r="A152" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>165340</v>
+        <v>240984</v>
       </c>
       <c r="C152" s="2">
-        <v>139728</v>
+        <v>203655</v>
       </c>
       <c r="D152" s="2">
-        <v>25612</v>
+        <v>37329</v>
       </c>
       <c r="E152" s="4">
         <v>2017</v>
@@ -4842,16 +5077,16 @@
     </row>
     <row r="153" spans="1:10" ht="21">
       <c r="A153" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>70953</v>
+        <v>103419</v>
       </c>
       <c r="C153" s="2">
-        <v>62064</v>
+        <v>90457</v>
       </c>
       <c r="D153" s="2">
-        <v>8889</v>
+        <v>12962</v>
       </c>
       <c r="E153" s="4">
         <v>2017</v>
@@ -4866,16 +5101,16 @@
     </row>
     <row r="154" spans="1:10" ht="21">
       <c r="A154" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>671651</v>
+        <v>979145</v>
       </c>
       <c r="C154" s="2">
-        <v>466531</v>
+        <v>680039</v>
       </c>
       <c r="D154" s="2">
-        <v>205120</v>
+        <v>299106</v>
       </c>
       <c r="E154" s="4">
         <v>2017</v>
@@ -4890,16 +5125,16 @@
     </row>
     <row r="155" spans="1:10" ht="21">
       <c r="A155" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>315203</v>
+        <v>459326</v>
       </c>
       <c r="C155" s="2">
-        <v>172549</v>
+        <v>251500</v>
       </c>
       <c r="D155" s="2">
-        <v>142653</v>
+        <v>207827</v>
       </c>
       <c r="E155" s="4">
         <v>2017</v>
@@ -4914,16 +5149,16 @@
     </row>
     <row r="156" spans="1:10" ht="21">
       <c r="A156" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>11766</v>
+        <v>17151</v>
       </c>
       <c r="C156" s="2">
-        <v>4564</v>
+        <v>6649</v>
       </c>
       <c r="D156" s="2">
-        <v>7203</v>
+        <v>10502</v>
       </c>
       <c r="E156" s="4">
         <v>2017</v>
@@ -4938,16 +5173,16 @@
     </row>
     <row r="157" spans="1:10" ht="21">
       <c r="A157" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2">
-        <v>6944</v>
+        <v>10119</v>
       </c>
       <c r="C157" s="2">
-        <v>3984</v>
+        <v>5806</v>
       </c>
       <c r="D157" s="2">
-        <v>2960</v>
+        <v>4313</v>
       </c>
       <c r="E157" s="4">
         <v>2017</v>
@@ -4962,7 +5197,7 @@
     </row>
     <row r="158" spans="1:10" ht="21">
       <c r="A158" s="5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -4986,16 +5221,16 @@
     </row>
     <row r="159" spans="1:10" ht="21">
       <c r="A159" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2">
-        <v>4529</v>
+        <v>6600</v>
       </c>
       <c r="C159" s="3">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D159" s="2">
-        <v>4430</v>
+        <v>6456</v>
       </c>
       <c r="E159" s="4">
         <v>2017</v>
@@ -5010,16 +5245,16 @@
     </row>
     <row r="160" spans="1:10" ht="21">
       <c r="A160" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2">
-        <v>36756</v>
+        <v>53579</v>
       </c>
       <c r="C160" s="2">
-        <v>24895</v>
+        <v>36288</v>
       </c>
       <c r="D160" s="2">
-        <v>11861</v>
+        <v>17291</v>
       </c>
       <c r="E160" s="4">
         <v>2017</v>
@@ -5034,16 +5269,16 @@
     </row>
     <row r="161" spans="1:10" ht="21">
       <c r="A161" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>7976</v>
+        <v>11626</v>
       </c>
       <c r="C161" s="2">
-        <v>7017</v>
-      </c>
-      <c r="D161" s="3">
-        <v>960</v>
+        <v>10228</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1399</v>
       </c>
       <c r="E161" s="4">
         <v>2017</v>
@@ -5058,7 +5293,7 @@
     </row>
     <row r="162" spans="1:10" ht="21">
       <c r="A162" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B162" s="3">
         <v>1</v>
@@ -5067,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E162" s="4">
         <v>2017</v>
@@ -5082,16 +5317,16 @@
     </row>
     <row r="163" spans="1:10" ht="21">
       <c r="A163" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2">
-        <v>13763248</v>
+        <v>20053407</v>
       </c>
       <c r="C163" s="2">
-        <v>6493047</v>
+        <v>9461095</v>
       </c>
       <c r="D163" s="2">
-        <v>7270202</v>
+        <v>10592313</v>
       </c>
       <c r="E163" s="4">
         <v>2017</v>
@@ -5106,13 +5341,13 @@
     </row>
     <row r="164" spans="1:10" ht="21">
       <c r="A164" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2">
-        <v>2755</v>
+        <v>4015</v>
       </c>
       <c r="C164" s="2">
-        <v>2755</v>
+        <v>4015</v>
       </c>
       <c r="D164" s="3">
         <v>0</v>
@@ -5130,16 +5365,16 @@
     </row>
     <row r="165" spans="1:10" ht="21">
       <c r="A165" s="5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2">
-        <v>499735</v>
+        <v>728062</v>
       </c>
       <c r="C165" s="2">
-        <v>348914</v>
+        <v>508296</v>
       </c>
       <c r="D165" s="2">
-        <v>150821</v>
+        <v>219766</v>
       </c>
       <c r="E165" s="4">
         <v>2017</v>
@@ -5154,13 +5389,13 @@
     </row>
     <row r="166" spans="1:10" ht="21">
       <c r="A166" s="5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B166" s="2">
-        <v>1312</v>
+        <v>1911</v>
       </c>
       <c r="C166" s="2">
-        <v>1310</v>
+        <v>1909</v>
       </c>
       <c r="D166" s="3">
         <v>2</v>
@@ -5178,16 +5413,16 @@
     </row>
     <row r="167" spans="1:10" ht="21">
       <c r="A167" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2">
-        <v>9452</v>
+        <v>13769</v>
       </c>
       <c r="C167" s="2">
-        <v>8060</v>
+        <v>11741</v>
       </c>
       <c r="D167" s="2">
-        <v>1392</v>
+        <v>2028</v>
       </c>
       <c r="E167" s="4">
         <v>2017</v>
@@ -5202,16 +5437,16 @@
     </row>
     <row r="168" spans="1:10" ht="21">
       <c r="A168" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2">
-        <v>9031</v>
+        <v>13188</v>
       </c>
       <c r="C168" s="2">
-        <v>7901</v>
+        <v>11542</v>
       </c>
       <c r="D168" s="2">
-        <v>1130</v>
+        <v>1646</v>
       </c>
       <c r="E168" s="4">
         <v>2017</v>
@@ -5226,16 +5461,16 @@
     </row>
     <row r="169" spans="1:10" ht="21">
       <c r="A169" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B169" s="2">
-        <v>3971</v>
+        <v>5782</v>
       </c>
       <c r="C169" s="2">
-        <v>3876</v>
+        <v>5644</v>
       </c>
       <c r="D169" s="3">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="E169" s="4">
         <v>2017</v>
@@ -5250,16 +5485,16 @@
     </row>
     <row r="170" spans="1:10" ht="21">
       <c r="A170" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B170" s="2">
-        <v>54260</v>
+        <v>79068</v>
       </c>
       <c r="C170" s="2">
-        <v>34121</v>
+        <v>49721</v>
       </c>
       <c r="D170" s="2">
-        <v>20139</v>
+        <v>29347</v>
       </c>
       <c r="E170" s="4">
         <v>2017</v>
@@ -5274,16 +5509,16 @@
     </row>
     <row r="171" spans="1:10" ht="21">
       <c r="A171" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B171" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C171" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="4">
         <v>2017</v>
@@ -5298,16 +5533,16 @@
     </row>
     <row r="172" spans="1:10" ht="21">
       <c r="A172" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2">
-        <v>4410360</v>
+        <v>6426734</v>
       </c>
       <c r="C172" s="2">
-        <v>1325155</v>
+        <v>1931167</v>
       </c>
       <c r="D172" s="2">
-        <v>3085204</v>
+        <v>4495567</v>
       </c>
       <c r="E172" s="4">
         <v>2017</v>
@@ -5322,13 +5557,13 @@
     </row>
     <row r="173" spans="1:10" ht="21">
       <c r="A173" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B173" s="2">
-        <v>53779</v>
+        <v>78618</v>
       </c>
       <c r="C173" s="2">
-        <v>53778</v>
+        <v>78617</v>
       </c>
       <c r="D173" s="3">
         <v>0</v>
@@ -5346,16 +5581,16 @@
     </row>
     <row r="174" spans="1:10" ht="21">
       <c r="A174" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2">
-        <v>1993906</v>
+        <v>2904601</v>
       </c>
       <c r="C174" s="2">
-        <v>742185</v>
+        <v>1081568</v>
       </c>
       <c r="D174" s="2">
-        <v>1251721</v>
+        <v>1823033</v>
       </c>
       <c r="E174" s="4">
         <v>2017</v>
@@ -5370,16 +5605,16 @@
     </row>
     <row r="175" spans="1:10" ht="21">
       <c r="A175" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2">
-        <v>725951</v>
+        <v>1057871</v>
       </c>
       <c r="C175" s="2">
-        <v>406945</v>
+        <v>593053</v>
       </c>
       <c r="D175" s="2">
-        <v>319006</v>
+        <v>464818</v>
       </c>
       <c r="E175" s="4">
         <v>2017</v>
@@ -5394,16 +5629,16 @@
     </row>
     <row r="176" spans="1:10" ht="21">
       <c r="A176" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2">
-        <v>2192</v>
+        <v>3196</v>
       </c>
       <c r="C176" s="2">
-        <v>2179</v>
+        <v>3177</v>
       </c>
       <c r="D176" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E176" s="4">
         <v>2017</v>
@@ -5418,16 +5653,16 @@
     </row>
     <row r="177" spans="1:10" ht="21">
       <c r="A177" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2">
-        <v>111783</v>
+        <v>162880</v>
       </c>
       <c r="C177" s="2">
-        <v>70075</v>
+        <v>102098</v>
       </c>
       <c r="D177" s="2">
-        <v>41708</v>
+        <v>60783</v>
       </c>
       <c r="E177" s="4">
         <v>2017</v>
@@ -5442,16 +5677,16 @@
     </row>
     <row r="178" spans="1:10" ht="21">
       <c r="A178" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2">
-        <v>72585</v>
+        <v>105789</v>
       </c>
       <c r="C178" s="2">
-        <v>51923</v>
+        <v>75681</v>
       </c>
       <c r="D178" s="2">
-        <v>20662</v>
+        <v>30108</v>
       </c>
       <c r="E178" s="4">
         <v>2017</v>
@@ -5466,16 +5701,16 @@
     </row>
     <row r="179" spans="1:10" ht="21">
       <c r="A179" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B179" s="2">
-        <v>1967</v>
+        <v>2866</v>
       </c>
       <c r="C179" s="2">
-        <v>1966</v>
+        <v>2865</v>
       </c>
       <c r="D179" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" s="4">
         <v>2017</v>
@@ -5490,16 +5725,16 @@
     </row>
     <row r="180" spans="1:10" ht="21">
       <c r="A180" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2">
-        <v>97466</v>
+        <v>142037</v>
       </c>
       <c r="C180" s="2">
-        <v>90757</v>
+        <v>132259</v>
       </c>
       <c r="D180" s="2">
-        <v>6709</v>
+        <v>9778</v>
       </c>
       <c r="E180" s="4">
         <v>2017</v>
@@ -5514,16 +5749,16 @@
     </row>
     <row r="181" spans="1:10" ht="21">
       <c r="A181" s="5" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2">
-        <v>276384</v>
+        <v>402833</v>
       </c>
       <c r="C181" s="2">
-        <v>153358</v>
+        <v>223498</v>
       </c>
       <c r="D181" s="2">
-        <v>123026</v>
+        <v>179335</v>
       </c>
       <c r="E181" s="4">
         <v>2017</v>
@@ -5538,16 +5773,16 @@
     </row>
     <row r="182" spans="1:10" ht="21">
       <c r="A182" s="5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B182" s="2">
-        <v>1042</v>
+        <v>1519</v>
       </c>
       <c r="C182" s="2">
-        <v>1030</v>
+        <v>1501</v>
       </c>
       <c r="D182" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E182" s="4">
         <v>2017</v>
@@ -5562,13 +5797,13 @@
     </row>
     <row r="183" spans="1:10" ht="21">
       <c r="A183" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>314</v>
+        <v>458</v>
       </c>
       <c r="C183" s="3">
-        <v>314</v>
+        <v>457</v>
       </c>
       <c r="D183" s="3">
         <v>0</v>
@@ -5586,13 +5821,13 @@
     </row>
     <row r="184" spans="1:10" ht="21">
       <c r="A184" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B184" s="2">
-        <v>1760</v>
+        <v>2566</v>
       </c>
       <c r="C184" s="2">
-        <v>1759</v>
+        <v>2565</v>
       </c>
       <c r="D184" s="3">
         <v>1</v>
@@ -5610,16 +5845,16 @@
     </row>
     <row r="185" spans="1:10" ht="21">
       <c r="A185" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2">
-        <v>97938</v>
+        <v>142701</v>
       </c>
       <c r="C185" s="2">
-        <v>93066</v>
+        <v>135599</v>
       </c>
       <c r="D185" s="2">
-        <v>4872</v>
+        <v>7101</v>
       </c>
       <c r="E185" s="4">
         <v>2017</v>
@@ -5634,16 +5869,16 @@
     </row>
     <row r="186" spans="1:10" ht="21">
       <c r="A186" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2">
-        <v>15390</v>
+        <v>22426</v>
       </c>
       <c r="C186" s="2">
-        <v>11328</v>
+        <v>16507</v>
       </c>
       <c r="D186" s="2">
-        <v>4062</v>
+        <v>5919</v>
       </c>
       <c r="E186" s="4">
         <v>2017</v>
@@ -5658,16 +5893,16 @@
     </row>
     <row r="187" spans="1:10" ht="21">
       <c r="A187" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2">
-        <v>25379</v>
+        <v>36985</v>
       </c>
       <c r="C187" s="2">
-        <v>24798</v>
+        <v>36139</v>
       </c>
       <c r="D187" s="3">
-        <v>580</v>
+        <v>845</v>
       </c>
       <c r="E187" s="4">
         <v>2017</v>
@@ -5682,16 +5917,16 @@
     </row>
     <row r="188" spans="1:10" ht="21">
       <c r="A188" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2">
-        <v>50237</v>
+        <v>73208</v>
       </c>
       <c r="C188" s="2">
-        <v>48626</v>
+        <v>70860</v>
       </c>
       <c r="D188" s="2">
-        <v>1611</v>
+        <v>2347</v>
       </c>
       <c r="E188" s="4">
         <v>2017</v>
@@ -5706,16 +5941,16 @@
     </row>
     <row r="189" spans="1:10" ht="21">
       <c r="A189" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2">
-        <v>35178</v>
+        <v>51272</v>
       </c>
       <c r="C189" s="2">
-        <v>28972</v>
+        <v>42230</v>
       </c>
       <c r="D189" s="2">
-        <v>6206</v>
+        <v>9042</v>
       </c>
       <c r="E189" s="4">
         <v>2017</v>
@@ -5730,13 +5965,13 @@
     </row>
     <row r="190" spans="1:10" ht="21">
       <c r="A190" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B190" s="2">
-        <v>1205</v>
+        <v>1757</v>
       </c>
       <c r="C190" s="2">
-        <v>1205</v>
+        <v>1756</v>
       </c>
       <c r="D190" s="3">
         <v>0</v>
@@ -5754,16 +5989,16 @@
     </row>
     <row r="191" spans="1:10" ht="21">
       <c r="A191" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2">
-        <v>2503291</v>
+        <v>3647924</v>
       </c>
       <c r="C191" s="2">
-        <v>1801835</v>
+        <v>2625729</v>
       </c>
       <c r="D191" s="2">
-        <v>701456</v>
+        <v>1022195</v>
       </c>
       <c r="E191" s="4">
         <v>2017</v>
@@ -5778,7 +6013,7 @@
     </row>
     <row r="192" spans="1:10" ht="21">
       <c r="A192" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -5787,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E192" s="4">
         <v>2017</v>
@@ -5802,16 +6037,16 @@
     </row>
     <row r="193" spans="1:10" ht="21">
       <c r="A193" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2">
-        <v>34030</v>
+        <v>49587</v>
       </c>
       <c r="C193" s="2">
-        <v>32913</v>
+        <v>47960</v>
       </c>
       <c r="D193" s="2">
-        <v>1117</v>
+        <v>1627</v>
       </c>
       <c r="E193" s="4">
         <v>2017</v>
@@ -5826,16 +6061,16 @@
     </row>
     <row r="194" spans="1:10" ht="21">
       <c r="A194" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2">
-        <v>368205</v>
+        <v>535398</v>
       </c>
       <c r="C194" s="2">
-        <v>364123</v>
+        <v>529448</v>
       </c>
       <c r="D194" s="2">
-        <v>4082</v>
+        <v>5950</v>
       </c>
       <c r="E194" s="4">
         <v>2017</v>
@@ -5850,16 +6085,16 @@
     </row>
     <row r="195" spans="1:10" ht="21">
       <c r="A195" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2">
-        <v>76406</v>
+        <v>111345</v>
       </c>
       <c r="C195" s="2">
-        <v>74878</v>
+        <v>109120</v>
       </c>
       <c r="D195" s="2">
-        <v>1527</v>
+        <v>2225</v>
       </c>
       <c r="E195" s="4">
         <v>2017</v>
@@ -5874,16 +6109,16 @@
     </row>
     <row r="196" spans="1:10" ht="21">
       <c r="A196" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2">
-        <v>1326396</v>
+        <v>1932267</v>
       </c>
       <c r="C196" s="2">
-        <v>388135</v>
+        <v>565633</v>
       </c>
       <c r="D196" s="2">
-        <v>938261</v>
+        <v>1366634</v>
       </c>
       <c r="E196" s="4">
         <v>2017</v>
@@ -5898,16 +6133,16 @@
     </row>
     <row r="197" spans="1:10" ht="21">
       <c r="A197" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2">
-        <v>67542</v>
+        <v>98356</v>
       </c>
       <c r="C197" s="2">
-        <v>32337</v>
+        <v>47121</v>
       </c>
       <c r="D197" s="2">
-        <v>35205</v>
+        <v>51235</v>
       </c>
       <c r="E197" s="4">
         <v>2017</v>
@@ -5922,16 +6157,16 @@
     </row>
     <row r="198" spans="1:10" ht="21">
       <c r="A198" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B198" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="4">
         <v>2017</v>
@@ -5946,16 +6181,16 @@
     </row>
     <row r="199" spans="1:10" ht="21">
       <c r="A199" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B199" s="3">
-        <v>916</v>
-      </c>
-      <c r="C199" s="3">
-        <v>911</v>
+        <v>203</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1335</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1328</v>
       </c>
       <c r="D199" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E199" s="4">
         <v>2017</v>
@@ -5970,16 +6205,16 @@
     </row>
     <row r="200" spans="1:10" ht="21">
       <c r="A200" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B200" s="3">
-        <v>498</v>
+        <v>725</v>
       </c>
       <c r="C200" s="3">
-        <v>498</v>
+        <v>725</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E200" s="4">
         <v>2017</v>
@@ -5994,16 +6229,16 @@
     </row>
     <row r="201" spans="1:10" ht="21">
       <c r="A201" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B201" s="3">
-        <v>377</v>
+        <v>549</v>
       </c>
       <c r="C201" s="3">
-        <v>358</v>
+        <v>521</v>
       </c>
       <c r="D201" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E201" s="4">
         <v>2017</v>
@@ -6018,16 +6253,16 @@
     </row>
     <row r="202" spans="1:10" ht="21">
       <c r="A202" s="5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2">
-        <v>45428</v>
+        <v>66184</v>
       </c>
       <c r="C202" s="2">
-        <v>40934</v>
+        <v>59633</v>
       </c>
       <c r="D202" s="2">
-        <v>4494</v>
+        <v>6550</v>
       </c>
       <c r="E202" s="4">
         <v>2017</v>
@@ -6042,16 +6277,16 @@
     </row>
     <row r="203" spans="1:10" ht="21">
       <c r="A203" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2">
-        <v>10435</v>
+        <v>15207</v>
       </c>
       <c r="C203" s="2">
-        <v>8761</v>
+        <v>12768</v>
       </c>
       <c r="D203" s="2">
-        <v>1674</v>
+        <v>2439</v>
       </c>
       <c r="E203" s="4">
         <v>2017</v>
@@ -6066,16 +6301,16 @@
     </row>
     <row r="204" spans="1:10" ht="21">
       <c r="A204" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2">
-        <v>26652</v>
+        <v>38838</v>
       </c>
       <c r="C204" s="2">
-        <v>19464</v>
+        <v>28364</v>
       </c>
       <c r="D204" s="2">
-        <v>7188</v>
+        <v>10474</v>
       </c>
       <c r="E204" s="4">
         <v>2017</v>
@@ -6090,13 +6325,13 @@
     </row>
     <row r="205" spans="1:10" ht="21">
       <c r="A205" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B205" s="3">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C205" s="3">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D205" s="3">
         <v>0</v>
@@ -6114,16 +6349,16 @@
     </row>
     <row r="206" spans="1:10" ht="21">
       <c r="A206" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2">
-        <v>196662</v>
+        <v>286563</v>
       </c>
       <c r="C206" s="2">
-        <v>104969</v>
+        <v>152951</v>
       </c>
       <c r="D206" s="2">
-        <v>91693</v>
+        <v>133612</v>
       </c>
       <c r="E206" s="4">
         <v>2017</v>
@@ -6138,16 +6373,16 @@
     </row>
     <row r="207" spans="1:10" ht="21">
       <c r="A207" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2">
-        <v>548145</v>
+        <v>798742</v>
       </c>
       <c r="C207" s="2">
-        <v>103680</v>
+        <v>151110</v>
       </c>
       <c r="D207" s="2">
-        <v>444465</v>
+        <v>647632</v>
       </c>
       <c r="E207" s="4">
         <v>2017</v>
@@ -6162,16 +6397,16 @@
     </row>
     <row r="208" spans="1:10" ht="21">
       <c r="A208" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B208" s="3">
-        <v>798</v>
-      </c>
-      <c r="C208" s="3">
-        <v>797</v>
+        <v>212</v>
+      </c>
+      <c r="B208" s="2">
+        <v>1162</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1160</v>
       </c>
       <c r="D208" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208" s="4">
         <v>2017</v>
@@ -6186,16 +6421,16 @@
     </row>
     <row r="209" spans="1:10" ht="21">
       <c r="A209" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B209" s="3">
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="C209" s="3">
-        <v>233</v>
+        <v>340</v>
       </c>
       <c r="D209" s="3">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E209" s="4">
         <v>2017</v>
@@ -6210,7 +6445,7 @@
     </row>
     <row r="210" spans="1:10" ht="21">
       <c r="A210" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -6219,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="4">
         <v>2017</v>
@@ -6234,13 +6469,13 @@
     </row>
     <row r="211" spans="1:10" ht="21">
       <c r="A211" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>1777</v>
+        <v>2590</v>
       </c>
       <c r="C211" s="2">
-        <v>1777</v>
+        <v>2590</v>
       </c>
       <c r="D211" s="3">
         <v>0</v>
@@ -6258,16 +6493,16 @@
     </row>
     <row r="212" spans="1:10" ht="21">
       <c r="A212" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B212" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C212" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="4">
         <v>2017</v>
@@ -6282,16 +6517,16 @@
     </row>
     <row r="213" spans="1:10" ht="21">
       <c r="A213" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2">
-        <v>35367333</v>
+        <v>51538305</v>
       </c>
       <c r="C213" s="2">
-        <v>23970010</v>
+        <v>34933701</v>
       </c>
       <c r="D213" s="2">
-        <v>11397324</v>
+        <v>16604604</v>
       </c>
       <c r="E213" s="4">
         <v>2017</v>
@@ -6306,16 +6541,16 @@
     </row>
     <row r="214" spans="1:10" ht="21">
       <c r="A214" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B214" s="2">
-        <v>2881291</v>
+        <v>4199005</v>
       </c>
       <c r="C214" s="2">
-        <v>1633506</v>
+        <v>2381144</v>
       </c>
       <c r="D214" s="2">
-        <v>1247785</v>
+        <v>1817861</v>
       </c>
       <c r="E214" s="4">
         <v>2017</v>
@@ -6330,16 +6565,16 @@
     </row>
     <row r="215" spans="1:10" ht="21">
       <c r="A215" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B215" s="2">
-        <v>32453770</v>
+        <v>47292268</v>
       </c>
       <c r="C215" s="2">
-        <v>22310217</v>
+        <v>32514254</v>
       </c>
       <c r="D215" s="2">
-        <v>10143553</v>
+        <v>14778014</v>
       </c>
       <c r="E215" s="4">
         <v>2017</v>
@@ -6354,16 +6589,16 @@
     </row>
     <row r="216" spans="1:10" ht="21">
       <c r="A216" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B216" s="2">
-        <v>6513</v>
+        <v>9498</v>
       </c>
       <c r="C216" s="3">
-        <v>532</v>
+        <v>776</v>
       </c>
       <c r="D216" s="2">
-        <v>5981</v>
+        <v>8722</v>
       </c>
       <c r="E216" s="4">
         <v>2017</v>
@@ -6378,16 +6613,16 @@
     </row>
     <row r="217" spans="1:10" ht="21">
       <c r="A217" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B217" s="2">
-        <v>25738</v>
+        <v>37504</v>
       </c>
       <c r="C217" s="2">
-        <v>25735</v>
+        <v>37499</v>
       </c>
       <c r="D217" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E217" s="4">
         <v>2017</v>
@@ -6402,16 +6637,16 @@
     </row>
     <row r="218" spans="1:10" ht="21">
       <c r="A218" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B218" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C218" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D218" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218" s="4">
         <v>2017</v>
@@ -6426,16 +6661,16 @@
     </row>
     <row r="219" spans="1:10" ht="21">
       <c r="A219" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B219" s="2">
-        <v>9496399</v>
+        <v>13837469</v>
       </c>
       <c r="C219" s="2">
-        <v>2767772</v>
+        <v>4033039</v>
       </c>
       <c r="D219" s="2">
-        <v>6728627</v>
+        <v>9804430</v>
       </c>
       <c r="E219" s="4">
         <v>2017</v>
@@ -6450,16 +6685,16 @@
     </row>
     <row r="220" spans="1:10" ht="21">
       <c r="A220" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B220" s="2">
-        <v>8274276</v>
+        <v>12056498</v>
       </c>
       <c r="C220" s="2">
-        <v>2256601</v>
+        <v>3288083</v>
       </c>
       <c r="D220" s="2">
-        <v>6017675</v>
+        <v>8768415</v>
       </c>
       <c r="E220" s="4">
         <v>2017</v>
@@ -6474,16 +6709,16 @@
     </row>
     <row r="221" spans="1:10" ht="21">
       <c r="A221" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B221" s="3">
-        <v>611</v>
+        <v>890</v>
       </c>
       <c r="C221" s="3">
-        <v>421</v>
+        <v>613</v>
       </c>
       <c r="D221" s="3">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="E221" s="4">
         <v>2017</v>
@@ -6498,16 +6733,16 @@
     </row>
     <row r="222" spans="1:10" ht="21">
       <c r="A222" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B222" s="2">
-        <v>17961</v>
+        <v>26185</v>
       </c>
       <c r="C222" s="2">
-        <v>17720</v>
+        <v>25834</v>
       </c>
       <c r="D222" s="3">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="E222" s="4">
         <v>2017</v>
@@ -6522,13 +6757,13 @@
     </row>
     <row r="223" spans="1:10" ht="21">
       <c r="A223" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B223" s="3">
         <v>0</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="3">
         <v>0</v>
@@ -6546,7 +6781,7 @@
     </row>
     <row r="224" spans="1:10" ht="21">
       <c r="A224" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B224" s="3">
         <v>1</v>
@@ -6555,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="4">
         <v>2017</v>
@@ -6570,16 +6805,16 @@
     </row>
     <row r="225" spans="1:10" ht="21">
       <c r="A225" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B225" s="3">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C225" s="3">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D225" s="3">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E225" s="4">
         <v>2017</v>
@@ -6594,16 +6829,16 @@
     </row>
     <row r="226" spans="1:10" ht="21">
       <c r="A226" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B226" s="2">
-        <v>43801</v>
+        <v>63833</v>
       </c>
       <c r="C226" s="2">
-        <v>4298</v>
+        <v>6266</v>
       </c>
       <c r="D226" s="2">
-        <v>39503</v>
+        <v>57567</v>
       </c>
       <c r="E226" s="4">
         <v>2017</v>
@@ -6618,16 +6853,16 @@
     </row>
     <row r="227" spans="1:10" ht="21">
       <c r="A227" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B227" s="2">
-        <v>3858</v>
+        <v>5620</v>
       </c>
       <c r="C227" s="2">
-        <v>3635</v>
+        <v>5296</v>
       </c>
       <c r="D227" s="3">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="E227" s="4">
         <v>2017</v>
@@ -6642,16 +6877,16 @@
     </row>
     <row r="228" spans="1:10" ht="21">
       <c r="A228" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B228" s="2">
-        <v>785219</v>
+        <v>1144341</v>
       </c>
       <c r="C228" s="2">
-        <v>264578</v>
+        <v>385590</v>
       </c>
       <c r="D228" s="2">
-        <v>520641</v>
+        <v>758751</v>
       </c>
       <c r="E228" s="4">
         <v>2017</v>
@@ -6666,16 +6901,16 @@
     </row>
     <row r="229" spans="1:10" ht="21">
       <c r="A229" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B229" s="3">
-        <v>393</v>
+        <v>573</v>
       </c>
       <c r="C229" s="3">
-        <v>393</v>
+        <v>573</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="4">
         <v>2017</v>
@@ -6690,16 +6925,16 @@
     </row>
     <row r="230" spans="1:10" ht="21">
       <c r="A230" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B230" s="2">
-        <v>160913</v>
+        <v>234396</v>
       </c>
       <c r="C230" s="2">
-        <v>42257</v>
+        <v>61545</v>
       </c>
       <c r="D230" s="2">
-        <v>118656</v>
+        <v>172851</v>
       </c>
       <c r="E230" s="4">
         <v>2017</v>
@@ -6714,16 +6949,16 @@
     </row>
     <row r="231" spans="1:10" ht="21">
       <c r="A231" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B231" s="3">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="C231" s="3">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="4">
         <v>2017</v>
@@ -6738,16 +6973,16 @@
     </row>
     <row r="232" spans="1:10" ht="21">
       <c r="A232" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B232" s="2">
-        <v>35367</v>
+        <v>51539</v>
       </c>
       <c r="C232" s="2">
-        <v>4284</v>
+        <v>6251</v>
       </c>
       <c r="D232" s="2">
-        <v>31084</v>
+        <v>45289</v>
       </c>
       <c r="E232" s="4">
         <v>2017</v>
@@ -6762,13 +6997,13 @@
     </row>
     <row r="233" spans="1:10" ht="21">
       <c r="A233" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B233" s="2">
-        <v>1651</v>
+        <v>2406</v>
       </c>
       <c r="C233" s="2">
-        <v>1651</v>
+        <v>2406</v>
       </c>
       <c r="D233" s="3">
         <v>0</v>
@@ -6786,16 +7021,16 @@
     </row>
     <row r="234" spans="1:10" ht="21">
       <c r="A234" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="4">
         <v>2017</v>
@@ -6810,16 +7045,16 @@
     </row>
     <row r="235" spans="1:10" ht="21">
       <c r="A235" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="4">
         <v>2017</v>
@@ -6834,13 +7069,13 @@
     </row>
     <row r="236" spans="1:10" ht="21">
       <c r="A236" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B236" s="2">
-        <v>3573</v>
+        <v>5209</v>
       </c>
       <c r="C236" s="2">
-        <v>3573</v>
+        <v>5209</v>
       </c>
       <c r="D236" s="3">
         <v>0</v>
@@ -6858,13 +7093,13 @@
     </row>
     <row r="237" spans="1:10" ht="21">
       <c r="A237" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B237" s="2">
-        <v>1016</v>
+        <v>1476</v>
       </c>
       <c r="C237" s="2">
-        <v>1016</v>
+        <v>1476</v>
       </c>
       <c r="D237" s="3">
         <v>0</v>
@@ -6882,13 +7117,13 @@
     </row>
     <row r="238" spans="1:10" ht="21">
       <c r="A238" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="C238" s="3">
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="D238" s="3">
         <v>0</v>
@@ -6906,16 +7141,16 @@
     </row>
     <row r="239" spans="1:10" ht="21">
       <c r="A239" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B239" s="3">
-        <v>644</v>
+        <v>939</v>
       </c>
       <c r="C239" s="3">
-        <v>642</v>
+        <v>935</v>
       </c>
       <c r="D239" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E239" s="4">
         <v>2017</v>
@@ -6930,16 +7165,16 @@
     </row>
     <row r="240" spans="1:10" ht="21">
       <c r="A240" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B240" s="2">
-        <v>162967</v>
+        <v>237517</v>
       </c>
       <c r="C240" s="2">
-        <v>162964</v>
+        <v>237511</v>
       </c>
       <c r="D240" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E240" s="4">
         <v>2017</v>
@@ -6954,16 +7189,16 @@
     </row>
     <row r="241" spans="1:10" ht="21">
       <c r="A241" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B241" s="3">
-        <v>716</v>
-      </c>
-      <c r="C241" s="3">
-        <v>716</v>
+        <v>245</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1044</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1044</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E241" s="4">
         <v>2017</v>
@@ -6978,16 +7213,16 @@
     </row>
     <row r="242" spans="1:10" ht="21">
       <c r="A242" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B242" s="2">
-        <v>2784</v>
+        <v>4058</v>
       </c>
       <c r="C242" s="2">
-        <v>2421</v>
+        <v>3529</v>
       </c>
       <c r="D242" s="3">
-        <v>363</v>
+        <v>529</v>
       </c>
       <c r="E242" s="4">
         <v>2017</v>
@@ -7002,7 +7237,7 @@
     </row>
     <row r="243" spans="1:10" ht="21">
       <c r="A243" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B243" s="3">
         <v>0</v>
@@ -7011,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243" s="4">
         <v>2017</v>
@@ -7026,16 +7261,16 @@
     </row>
     <row r="244" spans="1:10" ht="21">
       <c r="A244" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="C244" s="3">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E244" s="4">
         <v>2017</v>
@@ -7050,16 +7285,16 @@
     </row>
     <row r="245" spans="1:10" ht="21">
       <c r="A245" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B245" s="2">
-        <v>94710</v>
+        <v>138005</v>
       </c>
       <c r="C245" s="2">
-        <v>3453</v>
+        <v>5036</v>
       </c>
       <c r="D245" s="2">
-        <v>91257</v>
+        <v>132969</v>
       </c>
       <c r="E245" s="4">
         <v>2017</v>
